--- a/2026/03-ENERO/informe_cripto.xlsx
+++ b/2026/03-ENERO/informe_cripto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1131a124248a455a/Escritorio/Oliver Preparacion Profesional/365-python-challenge/2026/03-ENERO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD3705E6399AE9F124D1B60B65079FB75" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5643C9AA-DF8F-4D42-A74B-80D536AF4972}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_C5BC4655930CA085227B73C9DF79D489C50D68A6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC7E861F-B6C8-4212-AA67-416514470061}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,6 +152,828 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Market Cap por Criptomoneda</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Market Cap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Bitcoin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ethereum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tether</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XRP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>USDC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solana</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TRON</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lido Staked Ether</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dogecoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1542689964999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>279548662238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>185159851295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103810509074</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97296697029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70285285714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57537103649</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26984121662</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22143542237</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17610893827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1082-433E-B380-56FCF3EF1329}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Criptomoneda</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Market Cap (USD)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Variación 24h</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.2347222222222223E-2"/>
+          <c:y val="7.7611111111111117E-2"/>
+          <c:w val="0.77243986111111107"/>
+          <c:h val="0.92238888888888892"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cambio 24h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Bitcoin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ethereum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tether</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XRP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>USDC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solana</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TRON</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lido Staked Ether</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dogecoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.0800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.41E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF32-436E-B60E-67E16A57464A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Criptomoneda</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Porcentaje</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Precio Actual</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Bitcoin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ethereum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tether</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BNB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XRP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>USDC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Solana</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TRON</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lido Staked Ether</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dogecoin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>77225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2315.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>761.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2314.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4E3-4BFB-B99F-AE0D9EF2376B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Criptomoneda</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Precio (USD)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8324394444444444"/>
+          <c:y val="0.23748194444444448"/>
+          <c:w val="0.15521333333333334"/>
+          <c:h val="0.63792499999999996"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7200000" cy="3600000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7200000" cy="3600000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9395460" cy="3878580"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,7 +1263,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -607,5 +1431,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>